--- a/data/party history.xlsx
+++ b/data/party history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanou\Dropbox\RESEARCH\klarahan.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C280A39-4643-49CB-9E98-CDAE6D10FE23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06131F78-195E-49F8-8A3A-9299E752A891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="564" yWindow="156" windowWidth="17448" windowHeight="11988" activeTab="1" xr2:uid="{2244EFFC-825B-4865-A9A0-927A56E73836}"/>
   </bookViews>
@@ -3495,14 +3495,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9075,8 +9075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9445B2E2-8248-4F84-A2FD-61CABD8B2B7C}">
   <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9156,10 +9156,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="14" t="s">
         <v>879</v>
       </c>
@@ -9256,10 +9256,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="14" t="s">
         <v>894</v>
       </c>
@@ -9356,10 +9356,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="14" t="s">
         <v>908</v>
       </c>
@@ -9447,10 +9447,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="14" t="s">
         <v>920</v>
       </c>
@@ -9527,10 +9527,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="14" t="s">
         <v>931</v>
       </c>
@@ -9629,10 +9629,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="14" t="s">
         <v>945</v>
       </c>
@@ -9819,10 +9819,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="14" t="s">
         <v>964</v>
       </c>
@@ -9954,10 +9954,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="14" t="s">
         <v>977</v>
       </c>
@@ -10089,10 +10089,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B100" s="18"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="14" t="s">
         <v>977</v>
       </c>
@@ -10167,10 +10167,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B108" s="18"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="14" t="s">
         <v>998</v>
       </c>
@@ -10245,10 +10245,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B116" s="18"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="14" t="s">
         <v>1004</v>
       </c>
@@ -10336,10 +10336,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B125" s="18"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="14" t="s">
         <v>1012</v>
       </c>
@@ -10482,10 +10482,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B139" s="18"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="14" t="s">
         <v>1026</v>
       </c>
@@ -10639,10 +10639,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B154" s="18"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="14" t="s">
         <v>1026</v>
       </c>
@@ -10653,7 +10653,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="17" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -10757,16 +10757,16 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B166" s="18"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="19" t="s">
+    <row r="167" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="17" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -10848,10 +10848,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B175" s="18"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="14" t="s">
         <v>1054</v>
       </c>
@@ -10928,10 +10928,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="17" t="s">
+      <c r="A183" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B183" s="18"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="14" t="s">
         <v>1049</v>
       </c>
@@ -11019,10 +11019,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="17" t="s">
+      <c r="A192" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B192" s="18"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="14" t="s">
         <v>1066</v>
       </c>
@@ -11176,10 +11176,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="17" t="s">
+      <c r="A207" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B207" s="18"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="14" t="s">
         <v>1077</v>
       </c>
@@ -11289,16 +11289,28 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="17" t="s">
+      <c r="A218" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B218" s="18"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="14" t="s">
         <v>1084</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="A207:B207"/>
     <mergeCell ref="A218:B218"/>
     <mergeCell ref="A139:B139"/>
@@ -11307,18 +11319,6 @@
     <mergeCell ref="A175:B175"/>
     <mergeCell ref="A183:B183"/>
     <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
